--- a/convert.excel/04.orders-rate_orders-detail.xlsx
+++ b/convert.excel/04.orders-rate_orders-detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tech it_資料庫導入\convert.excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328AB461-2E10-44E9-B4B0-6CB957C5A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B921C9-B084-4A27-82A1-4383831321B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2805" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1500" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders_rate" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>order_id</t>
   </si>
@@ -62,59 +62,73 @@
     <t>整體設計上，更加簡約，爲標準的矮圓柱體，上面有顆小指示燈，還帶有一個按鈕。能夠關閉警報聲音。新的多模網關取消了網關燈，同時也沒有網狀的鏤空內置揚聲器設計</t>
   </si>
   <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>石頭掃地機器人 S6 MaxV</t>
+  </si>
+  <si>
+    <t>0301.png</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>公子小白pro</t>
+  </si>
+  <si>
+    <t>0503.png</t>
+  </si>
+  <si>
+    <t>Amazon echo Dot (4th Gen) Kids</t>
+  </si>
+  <si>
+    <t>2111.png</t>
+  </si>
+  <si>
+    <t>老虎</t>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>prod_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prod_thumbnail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prod_price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prod_choice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prod_qty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prod_subtotal</t>
-  </si>
-  <si>
-    <t>0301</t>
-  </si>
-  <si>
-    <t>石頭掃地機器人 S6 MaxV</t>
-  </si>
-  <si>
-    <t>0301.png</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>0503</t>
-  </si>
-  <si>
-    <t>公子小白pro</t>
-  </si>
-  <si>
-    <t>0503.png</t>
-  </si>
-  <si>
-    <t>Amazon echo Dot (4th Gen) Kids</t>
-  </si>
-  <si>
-    <t>2111.png</t>
-  </si>
-  <si>
-    <t>老虎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,6 +148,12 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,12 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -559,8 +580,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -577,29 +598,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -607,19 +628,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>17999</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -633,19 +654,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>8594</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -662,16 +683,16 @@
         <v>2111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>1390</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -683,5 +704,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>